--- a/Game/Content/Files/mission_List_Beta.xlsx
+++ b/Game/Content/Files/mission_List_Beta.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>MissionID</t>
   </si>
@@ -47,12 +47,6 @@
     <t>カードキーを探せ</t>
   </si>
   <si>
-    <t>化け物の写真を撮れ0/4</t>
-  </si>
-  <si>
-    <t>赤ちゃんの写真を撮れ0/1</t>
-  </si>
-  <si>
     <t>レバー(赤)を全て降ろせ</t>
   </si>
   <si>
@@ -60,6 +54,22 @@
   </si>
   <si>
     <t>ProgressNumber</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>化け物の写真を撮れ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>赤ちゃんの写真を撮れ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>CurrentNumber</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>isFinishedFlag</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -653,9 +663,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -978,10 +991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -991,7 +1004,7 @@
     <col min="5" max="5" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1002,10 +1015,16 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1019,7 +1038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1035,8 +1054,14 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1047,13 +1072,19 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1064,13 +1095,19 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1081,13 +1118,19 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1103,8 +1146,14 @@
       <c r="E7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1115,13 +1164,19 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1132,7 +1187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1143,7 +1198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1154,7 +1209,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1165,7 +1220,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1173,7 +1228,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1181,7 +1236,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1189,7 +1244,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>14</v>
       </c>
